--- a/Timetable/Timetable.xlsx
+++ b/Timetable/Timetable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -66,15 +66,9 @@
     <t>GIT, MySQL</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>Pentaho</t>
   </si>
   <si>
-    <t>Data Analysis</t>
-  </si>
-  <si>
     <t>Stata Data Managent</t>
   </si>
   <si>
@@ -85,13 +79,22 @@
   </si>
   <si>
     <t xml:space="preserve">Basic Statistics Core topics </t>
+  </si>
+  <si>
+    <t>Data Analysis Stata and R</t>
+  </si>
+  <si>
+    <t>Python Data mangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note:- Even when a single idea is learnt that remains very sufficient and enough. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,20 +149,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" activeCellId="1" sqref="D5 D5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,17 +559,17 @@
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -461,82 +577,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
